--- a/xls_template.xlsx
+++ b/xls_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\HankeC\work\for_PDB\20230515_excel2mmcif_template_coloring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\flr2mmcif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644FA0CE-38A0-479C-AB69-469C79970456}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D828CA74-4C88-4AE3-9195-4DE4AD88886F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="730" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="19" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <sheet name="FLR_FRET_Model_quality" sheetId="11" r:id="rId21"/>
     <sheet name="for_internal_use_only" sheetId="9" r:id="rId22"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId23"/>
-  </externalReferences>
   <definedNames>
     <definedName name="citation_id">Citation!$A$5:$A$1048576</definedName>
     <definedName name="Database_enumeration">for_internal_use_only!$L$2:$L$13</definedName>
@@ -3821,55 +3818,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="README"/>
-      <sheetName val="Citation"/>
-      <sheetName val="Entity"/>
-      <sheetName val="Dataset"/>
-      <sheetName val="External_files"/>
-      <sheetName val="Software"/>
-      <sheetName val="Instance"/>
-      <sheetName val="Starting_comparative_model"/>
-      <sheetName val="Modeling_protocol"/>
-      <sheetName val="Modeling_post_process"/>
-      <sheetName val="Multi-state modeling"/>
-      <sheetName val="Models"/>
-      <sheetName val="Ensemble Info"/>
-      <sheetName val="FLR"/>
-      <sheetName val="FLR_FPS_MPP_group"/>
-      <sheetName val="FLR_FPS_global_parameters"/>
-      <sheetName val="FLR_FRET_Model_distances"/>
-      <sheetName val="FLR_FRET_Model_quality"/>
-      <sheetName val="for_internal_use_only"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4135,8 +4083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33879,7 +33827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/xls_template.xlsx
+++ b/xls_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\flr2mmcif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\HankeC\work\flr2mmcif_development\20240619_update_excel_sheet\flr2mmcif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D828CA74-4C88-4AE3-9195-4DE4AD88886F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD1ADB-CA86-4840-95AE-060F17F75EDA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="19" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Multi-state modeling" sheetId="7" r:id="rId12"/>
     <sheet name="Multi-state scheme" sheetId="22" r:id="rId13"/>
     <sheet name="Models" sheetId="2" r:id="rId14"/>
-    <sheet name="Ensemble Info" sheetId="17" r:id="rId15"/>
+    <sheet name="Collection of models" sheetId="17" r:id="rId15"/>
     <sheet name="Reference_measurements" sheetId="20" r:id="rId16"/>
     <sheet name="FLR" sheetId="8" r:id="rId17"/>
     <sheet name="FLR_FPS_MPP_group" sheetId="18" r:id="rId18"/>
@@ -2140,9 +2140,6 @@
     <t>Time-ordered modeling?</t>
   </si>
   <si>
-    <t>Ensemble?</t>
-  </si>
-  <si>
     <t>The ID of the software used (Tab 'Software') in this step of the modeling protocol.</t>
   </si>
   <si>
@@ -2200,33 +2197,12 @@
     <t>The name of the model group.</t>
   </si>
   <si>
-    <t>Is the model a representative of an ensemble?</t>
-  </si>
-  <si>
     <t>If it is a representative, what was the selection criterion?</t>
   </si>
   <si>
-    <t>The name of the ensemble</t>
-  </si>
-  <si>
-    <t>How was the ensemble clustered (the method)? Please choose one.</t>
-  </si>
-  <si>
     <t>What was the feature for clustering?</t>
   </si>
   <si>
-    <t>How many models are in the ensemble? (This might be more than the number of models deposited, if e.g. only representatives are deposited)</t>
-  </si>
-  <si>
-    <t>How many models from the ensemble are deposited?</t>
-  </si>
-  <si>
-    <t>What is the precision value of the ensemble?</t>
-  </si>
-  <si>
-    <t>The File ID of the ensemble (Tab 'External_files')</t>
-  </si>
-  <si>
     <t>Most of these entries correspond to the global parameters in the FPS program.</t>
   </si>
   <si>
@@ -2401,12 +2377,6 @@
     <t>The ID of the modeling protocol (Tab 'Modeling protocol').</t>
   </si>
   <si>
-    <t>Description of an ensemble of structural models.</t>
-  </si>
-  <si>
-    <t>The post process ID by which the ensemble was created (Tab 'Modeling_post_process').</t>
-  </si>
-  <si>
     <t>The ID of the model group (Tab 'Models').</t>
   </si>
   <si>
@@ -3232,9 +3202,6 @@
     <t>Ensemble FRET data</t>
   </si>
   <si>
-    <t>Template version 1.7</t>
-  </si>
-  <si>
     <t>Details to the entity</t>
   </si>
   <si>
@@ -3245,6 +3212,39 @@
   </si>
   <si>
     <t>Dataset Type</t>
+  </si>
+  <si>
+    <t>Template version 1.8</t>
+  </si>
+  <si>
+    <t>Collection of models?</t>
+  </si>
+  <si>
+    <t>Is the model a representative of a collection of models?</t>
+  </si>
+  <si>
+    <t>Description of a collection of structural models.</t>
+  </si>
+  <si>
+    <t>The name of the collection of models</t>
+  </si>
+  <si>
+    <t>The post process ID by which the collection of models was created (Tab 'Modeling_post_process').</t>
+  </si>
+  <si>
+    <t>How many models are in the collection? (This might be more than the number of models deposited, if e.g. only representatives are deposited)</t>
+  </si>
+  <si>
+    <t>How many models from the collection are deposited?</t>
+  </si>
+  <si>
+    <t>What is the precision value of the collection of models?</t>
+  </si>
+  <si>
+    <t>The File ID of the collection of models (Tab 'External_files')</t>
+  </si>
+  <si>
+    <t>How was the collection of models clustered (the method)? Please choose one.</t>
   </si>
 </sst>
 </file>
@@ -4084,19 +4084,19 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4104,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4112,7 +4112,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4120,7 +4120,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4128,7 +4128,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4136,7 +4136,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4144,7 +4144,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4152,7 +4152,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4160,7 +4160,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -4173,7 +4173,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:N1048576"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4184,7 +4184,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="20" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
@@ -4198,10 +4198,10 @@
         <v>675</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>677</v>
@@ -4228,10 +4228,10 @@
         <v>684</v>
       </c>
       <c r="N2" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>685</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -4362,7 +4362,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="20" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
@@ -4370,37 +4370,37 @@
         <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>687</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>688</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>760</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>689</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>761</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>762</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>690</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>691</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>692</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
         <v>693</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="L2" s="20" t="s">
         <v>694</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -4524,7 +4524,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -4532,31 +4532,31 @@
         <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>696</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
+        <v>756</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>697</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>764</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>698</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>699</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
+        <v>895</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>757</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>700</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>905</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>765</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
@@ -4582,7 +4582,7 @@
         <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="I3" t="s">
         <v>135</v>
@@ -4614,7 +4614,7 @@
         <v>418</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>419</v>
@@ -4647,7 +4647,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4673,7 +4673,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="65" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="75" customFormat="1" ht="174" thickBot="1" x14ac:dyDescent="0.3">
@@ -4681,79 +4681,79 @@
         <v>641</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="C2" s="86" t="s">
+        <v>954</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>955</v>
+      </c>
+      <c r="E2" s="85" t="s">
+        <v>958</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>959</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>961</v>
+      </c>
+      <c r="H2" s="87" t="s">
+        <v>960</v>
+      </c>
+      <c r="I2" s="85" t="s">
+        <v>968</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>969</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>970</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>971</v>
+      </c>
+      <c r="N2" s="86" t="s">
+        <v>972</v>
+      </c>
+      <c r="O2" s="87" t="s">
+        <v>973</v>
+      </c>
+      <c r="P2" s="85" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q2" s="94" t="s">
+        <v>963</v>
+      </c>
+      <c r="R2" s="94" t="s">
         <v>964</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="S2" s="86" t="s">
         <v>965</v>
       </c>
-      <c r="E2" s="85" t="s">
-        <v>968</v>
-      </c>
-      <c r="F2" s="86" t="s">
-        <v>969</v>
-      </c>
-      <c r="G2" s="86" t="s">
-        <v>971</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>970</v>
-      </c>
-      <c r="I2" s="85" t="s">
-        <v>978</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>1042</v>
-      </c>
-      <c r="K2" s="86" t="s">
-        <v>979</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>980</v>
-      </c>
-      <c r="M2" s="86" t="s">
-        <v>981</v>
-      </c>
-      <c r="N2" s="86" t="s">
-        <v>982</v>
-      </c>
-      <c r="O2" s="87" t="s">
-        <v>983</v>
-      </c>
-      <c r="P2" s="85" t="s">
-        <v>972</v>
-      </c>
-      <c r="Q2" s="94" t="s">
-        <v>973</v>
-      </c>
-      <c r="R2" s="94" t="s">
+      <c r="T2" s="86" t="s">
+        <v>966</v>
+      </c>
+      <c r="U2" s="94" t="s">
+        <v>967</v>
+      </c>
+      <c r="V2" s="86" t="s">
         <v>974</v>
       </c>
-      <c r="S2" s="86" t="s">
+      <c r="W2" s="85" t="s">
+        <v>976</v>
+      </c>
+      <c r="X2" s="86" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Y2" s="86" t="s">
         <v>975</v>
       </c>
-      <c r="T2" s="86" t="s">
-        <v>976</v>
-      </c>
-      <c r="U2" s="94" t="s">
-        <v>977</v>
-      </c>
-      <c r="V2" s="86" t="s">
-        <v>984</v>
-      </c>
-      <c r="W2" s="85" t="s">
-        <v>986</v>
-      </c>
-      <c r="X2" s="86" t="s">
-        <v>1044</v>
-      </c>
-      <c r="Y2" s="86" t="s">
-        <v>985</v>
-      </c>
       <c r="Z2" s="87" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="65" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -4761,153 +4761,153 @@
         <v>129</v>
       </c>
       <c r="B3" s="88" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="D3" s="89" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="E3" s="92" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="F3" s="81" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="G3" s="81" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="H3" s="89" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="I3" s="88" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="J3" s="81"/>
       <c r="K3" s="81" t="s">
+        <v>980</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>981</v>
+      </c>
+      <c r="M3" s="81" t="s">
+        <v>982</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>983</v>
+      </c>
+      <c r="O3" s="89" t="s">
+        <v>984</v>
+      </c>
+      <c r="P3" s="88" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q3" s="81" t="s">
+        <v>986</v>
+      </c>
+      <c r="R3" s="81" t="s">
+        <v>987</v>
+      </c>
+      <c r="S3" s="81" t="s">
+        <v>988</v>
+      </c>
+      <c r="T3" s="81" t="s">
+        <v>989</v>
+      </c>
+      <c r="U3" s="81" t="s">
         <v>990</v>
       </c>
-      <c r="L3" s="81" t="s">
-        <v>991</v>
-      </c>
-      <c r="M3" s="81" t="s">
+      <c r="V3" s="81" t="s">
         <v>992</v>
       </c>
-      <c r="N3" s="81" t="s">
+      <c r="W3" s="88" t="s">
         <v>993</v>
-      </c>
-      <c r="O3" s="89" t="s">
-        <v>994</v>
-      </c>
-      <c r="P3" s="88" t="s">
-        <v>995</v>
-      </c>
-      <c r="Q3" s="81" t="s">
-        <v>996</v>
-      </c>
-      <c r="R3" s="81" t="s">
-        <v>997</v>
-      </c>
-      <c r="S3" s="81" t="s">
-        <v>998</v>
-      </c>
-      <c r="T3" s="81" t="s">
-        <v>999</v>
-      </c>
-      <c r="U3" s="81" t="s">
-        <v>1000</v>
-      </c>
-      <c r="V3" s="81" t="s">
-        <v>1002</v>
-      </c>
-      <c r="W3" s="88" t="s">
-        <v>1003</v>
       </c>
       <c r="X3" s="81"/>
       <c r="Y3" s="81" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="Z3" s="89"/>
     </row>
     <row r="4" spans="1:26" s="70" customFormat="1" ht="48" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
+        <v>995</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>996</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>998</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H4" s="91" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I4" s="90" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>1005</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="M4" s="16" t="s">
         <v>1006</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="N4" s="16" t="s">
         <v>1007</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="O4" s="91" t="s">
         <v>1008</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="P4" s="90" t="s">
+        <v>1009</v>
+      </c>
+      <c r="Q4" s="16" t="s">
         <v>1010</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="R4" s="16" t="s">
         <v>1011</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="S4" s="16" t="s">
         <v>1012</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="T4" s="16" t="s">
         <v>1013</v>
       </c>
-      <c r="J4" s="16" t="s">
-        <v>1043</v>
-      </c>
-      <c r="K4" s="16" t="s">
+      <c r="U4" s="16" t="s">
         <v>1014</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="V4" s="16" t="s">
         <v>1015</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="W4" s="90" t="s">
+        <v>1017</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Y4" s="16" t="s">
         <v>1016</v>
       </c>
-      <c r="N4" s="16" t="s">
-        <v>1017</v>
-      </c>
-      <c r="O4" s="91" t="s">
-        <v>1018</v>
-      </c>
-      <c r="P4" s="90" t="s">
-        <v>1019</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>1020</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>1021</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>1022</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>1023</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>1024</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>1025</v>
-      </c>
-      <c r="W4" s="90" t="s">
-        <v>1027</v>
-      </c>
-      <c r="X4" s="16" t="s">
-        <v>1045</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>1026</v>
-      </c>
       <c r="Z4" s="91" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="65" customFormat="1" x14ac:dyDescent="0.25">
@@ -4952,14 +4952,14 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="20" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
@@ -4967,34 +4967,34 @@
         <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>702</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>703</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
+        <v>759</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>760</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>761</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>763</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>704</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>767</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>768</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>769</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>770</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>771</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>705</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -5109,7 +5109,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5125,7 +5125,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>772</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -5133,31 +5133,31 @@
         <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>707</v>
+        <v>1047</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>773</v>
+        <v>1048</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>708</v>
+        <v>1053</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>710</v>
+        <v>1049</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>711</v>
+        <v>1050</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>712</v>
+        <v>1051</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>713</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
@@ -5287,7 +5287,7 @@
   <sheetData>
     <row r="1" spans="1:74" s="83" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="F1" s="84"/>
       <c r="H1" s="84"/>
@@ -5300,12 +5300,12 @@
       <c r="BH1" s="84"/>
       <c r="BJ1" s="84"/>
       <c r="BT1" s="84" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="2" spans="1:74" s="16" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>148</v>
@@ -5347,28 +5347,28 @@
         <v>641</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="E3" s="77" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="H3" s="77" t="s">
         <v>165</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="J3" s="31" t="s">
         <v>166</v>
@@ -5449,34 +5449,34 @@
         <v>191</v>
       </c>
       <c r="AJ3" s="77" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="AK3" s="31" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="AL3" s="31" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="AM3" s="31" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="AN3" s="77" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="AO3" s="31" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="AP3" s="31" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="AQ3" s="31" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="AR3" s="77" t="s">
         <v>192</v>
       </c>
       <c r="AS3" s="31" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="AT3" s="31" t="s">
         <v>193</v>
@@ -5500,7 +5500,7 @@
         <v>199</v>
       </c>
       <c r="BA3" s="31" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="BB3" s="31" t="s">
         <v>200</v>
@@ -5557,237 +5557,237 @@
         <v>217</v>
       </c>
       <c r="BT3" s="77" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="BU3" s="31" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="BV3" s="33" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:74" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>817</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>892</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>838</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>823</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>824</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>894</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>827</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>828</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>902</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>826</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="P4" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>833</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>834</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>836</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>837</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="AA4" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="AB4" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="AC4" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="AG4" s="13" t="s">
         <v>848</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>832</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>833</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>835</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>836</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>837</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>838</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>839</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>840</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>841</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>842</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>843</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>844</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>847</v>
-      </c>
-      <c r="X4" s="14" t="s">
+      <c r="AH4" s="13" t="s">
         <v>849</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="AI4" s="13" t="s">
         <v>850</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="AJ4" s="72" t="s">
+        <v>933</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="AL4" s="13" t="s">
+        <v>935</v>
+      </c>
+      <c r="AM4" s="13" t="s">
+        <v>936</v>
+      </c>
+      <c r="AN4" s="72" t="s">
+        <v>937</v>
+      </c>
+      <c r="AO4" s="13" t="s">
+        <v>938</v>
+      </c>
+      <c r="AP4" s="13" t="s">
+        <v>939</v>
+      </c>
+      <c r="AQ4" s="13" t="s">
+        <v>940</v>
+      </c>
+      <c r="AR4" s="14" t="s">
         <v>851</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AS4" s="72" t="s">
+        <v>944</v>
+      </c>
+      <c r="AT4" s="13" t="s">
         <v>852</v>
       </c>
-      <c r="AB4" s="13" t="s">
+      <c r="AU4" s="13" t="s">
         <v>853</v>
       </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AV4" s="13" t="s">
         <v>854</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AW4" s="13" t="s">
         <v>855</v>
       </c>
-      <c r="AE4" s="13" t="s">
+      <c r="AX4" s="13" t="s">
         <v>856</v>
       </c>
-      <c r="AF4" s="14" t="s">
+      <c r="AY4" s="13" t="s">
         <v>857</v>
       </c>
-      <c r="AG4" s="13" t="s">
+      <c r="AZ4" s="13" t="s">
         <v>858</v>
       </c>
-      <c r="AH4" s="13" t="s">
+      <c r="BA4" s="72" t="s">
+        <v>946</v>
+      </c>
+      <c r="BB4" s="13" t="s">
         <v>859</v>
       </c>
-      <c r="AI4" s="13" t="s">
+      <c r="BC4" s="13" t="s">
         <v>860</v>
       </c>
-      <c r="AJ4" s="72" t="s">
-        <v>943</v>
-      </c>
-      <c r="AK4" s="13" t="s">
-        <v>944</v>
-      </c>
-      <c r="AL4" s="13" t="s">
-        <v>945</v>
-      </c>
-      <c r="AM4" s="13" t="s">
-        <v>946</v>
-      </c>
-      <c r="AN4" s="72" t="s">
-        <v>947</v>
-      </c>
-      <c r="AO4" s="13" t="s">
-        <v>948</v>
-      </c>
-      <c r="AP4" s="13" t="s">
-        <v>949</v>
-      </c>
-      <c r="AQ4" s="13" t="s">
-        <v>950</v>
-      </c>
-      <c r="AR4" s="14" t="s">
+      <c r="BD4" s="13" t="s">
         <v>861</v>
       </c>
-      <c r="AS4" s="72" t="s">
-        <v>954</v>
-      </c>
-      <c r="AT4" s="13" t="s">
+      <c r="BE4" s="13" t="s">
         <v>862</v>
       </c>
-      <c r="AU4" s="13" t="s">
+      <c r="BF4" s="13" t="s">
         <v>863</v>
       </c>
-      <c r="AV4" s="13" t="s">
+      <c r="BG4" s="13" t="s">
         <v>864</v>
       </c>
-      <c r="AW4" s="13" t="s">
+      <c r="BH4" s="72" t="s">
         <v>865</v>
       </c>
-      <c r="AX4" s="13" t="s">
+      <c r="BI4" s="13" t="s">
         <v>866</v>
       </c>
-      <c r="AY4" s="13" t="s">
+      <c r="BJ4" s="14" t="s">
         <v>867</v>
       </c>
-      <c r="AZ4" s="13" t="s">
+      <c r="BK4" s="13" t="s">
         <v>868</v>
       </c>
-      <c r="BA4" s="72" t="s">
-        <v>956</v>
-      </c>
-      <c r="BB4" s="13" t="s">
+      <c r="BL4" s="13" t="s">
         <v>869</v>
       </c>
-      <c r="BC4" s="13" t="s">
+      <c r="BM4" s="13" t="s">
         <v>870</v>
       </c>
-      <c r="BD4" s="13" t="s">
+      <c r="BN4" s="13" t="s">
         <v>871</v>
       </c>
-      <c r="BE4" s="13" t="s">
+      <c r="BO4" s="13" t="s">
         <v>872</v>
       </c>
-      <c r="BF4" s="13" t="s">
+      <c r="BP4" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="BG4" s="13" t="s">
+      <c r="BQ4" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="BH4" s="72" t="s">
+      <c r="BR4" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="BI4" s="13" t="s">
+      <c r="BS4" s="13" t="s">
         <v>876</v>
       </c>
-      <c r="BJ4" s="14" t="s">
+      <c r="BT4" s="14" t="s">
         <v>877</v>
       </c>
-      <c r="BK4" s="13" t="s">
+      <c r="BU4" s="14" t="s">
         <v>878</v>
       </c>
-      <c r="BL4" s="13" t="s">
-        <v>879</v>
-      </c>
-      <c r="BM4" s="13" t="s">
-        <v>880</v>
-      </c>
-      <c r="BN4" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="BO4" s="13" t="s">
+      <c r="BV4" s="13" t="s">
         <v>882</v>
-      </c>
-      <c r="BP4" s="13" t="s">
-        <v>883</v>
-      </c>
-      <c r="BQ4" s="13" t="s">
-        <v>884</v>
-      </c>
-      <c r="BR4" s="13" t="s">
-        <v>885</v>
-      </c>
-      <c r="BS4" s="13" t="s">
-        <v>886</v>
-      </c>
-      <c r="BT4" s="14" t="s">
-        <v>887</v>
-      </c>
-      <c r="BU4" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="BV4" s="13" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="5" spans="1:74" x14ac:dyDescent="0.25">
@@ -8179,7 +8179,7 @@
   <sheetData>
     <row r="1" spans="1:127" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="B1" s="24"/>
       <c r="E1" s="24"/>
@@ -8189,7 +8189,7 @@
       <c r="Y1" s="24"/>
       <c r="AG1" s="24"/>
       <c r="AK1" s="76" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="AS1" s="24"/>
       <c r="AT1" s="30"/>
@@ -8199,10 +8199,10 @@
       <c r="BW1" s="26"/>
       <c r="BX1" s="26"/>
       <c r="BY1" s="24" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="CG1" s="38" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="CH1" s="39"/>
       <c r="CI1" s="39"/>
@@ -8218,7 +8218,7 @@
     </row>
     <row r="2" spans="1:127" s="7" customFormat="1" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>147</v>
@@ -8321,7 +8321,7 @@
       <c r="BV2" s="16"/>
       <c r="BW2" s="27"/>
       <c r="BX2" s="27" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="BY2" s="17" t="s">
         <v>160</v>
@@ -8334,13 +8334,13 @@
       <c r="CE2" s="16"/>
       <c r="CF2" s="16"/>
       <c r="CG2" s="17" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="CH2" s="16"/>
       <c r="CI2" s="16"/>
       <c r="CJ2" s="16"/>
       <c r="CK2" s="16" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="CL2" s="35"/>
       <c r="CM2" s="16" t="s">
@@ -8390,16 +8390,16 @@
         <v>636</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>165</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="G3" s="54" t="s">
         <v>166</v>
@@ -8411,13 +8411,13 @@
         <v>167</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="M3" s="23" t="s">
         <v>168</v>
@@ -8492,46 +8492,46 @@
         <v>191</v>
       </c>
       <c r="AK3" s="23" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="AL3" s="22" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="AM3" s="22" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="AN3" s="22" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="AO3" s="22" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="AP3" s="22" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="AQ3" s="22" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="AR3" s="22" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="AS3" s="23" t="s">
         <v>192</v>
       </c>
       <c r="AT3" s="22" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="AU3" s="22" t="s">
         <v>193</v>
       </c>
       <c r="AV3" s="22" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="AW3" s="22" t="s">
         <v>195</v>
       </c>
       <c r="AX3" s="22" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="AY3" s="22" t="s">
         <v>197</v>
@@ -8543,19 +8543,19 @@
         <v>199</v>
       </c>
       <c r="BB3" s="22" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="BC3" s="22" t="s">
         <v>200</v>
       </c>
       <c r="BD3" s="22" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="BE3" s="22" t="s">
         <v>202</v>
       </c>
       <c r="BF3" s="22" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="BG3" s="22" t="s">
         <v>204</v>
@@ -8606,47 +8606,47 @@
         <v>219</v>
       </c>
       <c r="BW3" s="28" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="BX3" s="28" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="BY3" s="23" t="s">
         <v>220</v>
       </c>
       <c r="BZ3" s="22" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="CA3" s="22"/>
       <c r="CB3" s="22" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="CC3" s="22" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="CD3" s="22" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="CE3" s="22" t="s">
         <v>221</v>
       </c>
       <c r="CF3" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="CG3" s="23" t="s">
+        <v>806</v>
+      </c>
+      <c r="CH3" s="22" t="s">
         <v>807</v>
       </c>
-      <c r="CG3" s="23" t="s">
-        <v>816</v>
-      </c>
-      <c r="CH3" s="22" t="s">
-        <v>817</v>
-      </c>
       <c r="CI3" s="22" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="CJ3" s="22" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="CK3" s="22" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="CL3" s="41"/>
       <c r="CM3" s="22" t="s">
@@ -8788,10 +8788,10 @@
         <v>253</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>254</v>
@@ -8866,34 +8866,34 @@
         <v>277</v>
       </c>
       <c r="AK4" s="72" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="AL4" s="13" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="AM4" s="13" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="AN4" s="13" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="AO4" s="72" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="AP4" s="13" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="AQ4" s="13" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="AR4" s="13" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="AS4" s="14" t="s">
         <v>278</v>
       </c>
       <c r="AT4" s="72" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="AU4" s="13" t="s">
         <v>279</v>
@@ -8917,7 +8917,7 @@
         <v>285</v>
       </c>
       <c r="BB4" s="72" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="BC4" s="13" t="s">
         <v>286</v>
@@ -8980,10 +8980,10 @@
         <v>305</v>
       </c>
       <c r="BW4" s="29" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="BX4" s="29" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="BY4" s="14" t="s">
         <v>306</v>
@@ -9010,19 +9010,19 @@
         <v>313</v>
       </c>
       <c r="CG4" s="14" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="CH4" s="13" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="CI4" s="13" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="CJ4" s="13" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="CK4" s="13" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="CL4" s="34"/>
       <c r="CM4" s="13" t="s">
@@ -9038,37 +9038,37 @@
         <v>317</v>
       </c>
       <c r="CQ4" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="CR4" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="CS4" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="CT4" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="CU4" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="CV4" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="CW4" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="CX4" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="CY4" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="CZ4" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="DA4" s="7" t="s">
         <v>779</v>
-      </c>
-      <c r="CR4" s="13" t="s">
-        <v>780</v>
-      </c>
-      <c r="CS4" s="13" t="s">
-        <v>781</v>
-      </c>
-      <c r="CT4" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="CU4" s="13" t="s">
-        <v>783</v>
-      </c>
-      <c r="CV4" s="13" t="s">
-        <v>784</v>
-      </c>
-      <c r="CW4" s="13" t="s">
-        <v>785</v>
-      </c>
-      <c r="CX4" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="CY4" s="13" t="s">
-        <v>787</v>
-      </c>
-      <c r="CZ4" s="13" t="s">
-        <v>788</v>
-      </c>
-      <c r="DA4" s="7" t="s">
-        <v>789</v>
       </c>
       <c r="DC4" s="14" t="s">
         <v>318</v>
@@ -32463,14 +32463,14 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="20" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
@@ -32478,13 +32478,13 @@
         <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -32566,7 +32566,7 @@
         <v>447</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>446</v>
@@ -32702,7 +32702,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="B1" s="65"/>
     </row>
@@ -32711,7 +32711,7 @@
         <v>641</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -32722,10 +32722,10 @@
     </row>
     <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="70" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -32749,7 +32749,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="20" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -32757,13 +32757,13 @@
         <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
@@ -32819,7 +32819,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="20" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
@@ -32827,19 +32827,19 @@
         <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -32997,10 +32997,10 @@
         <v>377</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="L1" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="N1" t="s">
         <v>383</v>
@@ -33009,13 +33009,13 @@
         <v>527</v>
       </c>
       <c r="S1" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="U1" s="65" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="W1" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -33044,13 +33044,13 @@
         <v>7</v>
       </c>
       <c r="S2" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="U2" s="65" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="W2" s="96" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -33079,13 +33079,13 @@
         <v>519</v>
       </c>
       <c r="S3" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="U3" s="65" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="W3" s="96" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -33111,10 +33111,10 @@
         <v>520</v>
       </c>
       <c r="S4" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="W4" s="96" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -33241,7 +33241,7 @@
         <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="L12" t="s">
         <v>56</v>
@@ -33352,7 +33352,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -33360,7 +33360,7 @@
         <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>637</v>
@@ -33489,7 +33489,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="20" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
@@ -33509,13 +33509,13 @@
         <v>655</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>656</v>
       </c>
       <c r="H2" s="75" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>657</v>
@@ -33530,10 +33530,10 @@
         <v>660</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -33603,7 +33603,7 @@
         <v>336</v>
       </c>
       <c r="H4" s="70" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>337</v>
@@ -33845,7 +33845,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="20" customFormat="1" ht="174" thickBot="1" x14ac:dyDescent="0.3">
@@ -33856,40 +33856,40 @@
         <v>642</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>643</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>644</v>
@@ -33898,7 +33898,7 @@
         <v>645</v>
       </c>
       <c r="Q2" s="75" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="R2" s="20" t="s">
         <v>646</v>
@@ -33966,10 +33966,10 @@
         <v>340</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>341</v>
@@ -34005,7 +34005,7 @@
         <v>350</v>
       </c>
       <c r="Q4" s="70" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>351</v>
@@ -34073,7 +34073,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
@@ -34084,7 +34084,7 @@
         <v>647</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>648</v>
@@ -34746,7 +34746,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
@@ -34784,7 +34784,7 @@
         <v>493</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>494</v>
@@ -34926,28 +34926,28 @@
         <v>641</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>663</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>664</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>666</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>667</v>
@@ -34965,10 +34965,10 @@
         <v>671</v>
       </c>
       <c r="O2" s="20" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="Q2" s="20" t="s">
         <v>672</v>
@@ -34980,7 +34980,7 @@
         <v>674</v>
       </c>
       <c r="T2" s="75" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -35042,7 +35042,7 @@
         <v>107</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -35112,7 +35112,7 @@
         <v>381</v>
       </c>
       <c r="T4" s="70" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -35218,31 +35218,31 @@
         <v>662</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>743</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>744</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>745</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>746</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>748</v>
+      </c>
+      <c r="L2" s="20" t="s">
         <v>749</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>750</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>751</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>752</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>753</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>754</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>755</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>756</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="78.75" hidden="1" x14ac:dyDescent="0.25">

--- a/xls_template.xlsx
+++ b/xls_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\HankeC\work\flr2mmcif_development\20240619_update_excel_sheet\flr2mmcif\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\flr2mmcif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAD1ADB-CA86-4840-95AE-060F17F75EDA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B46D3-411F-4F75-87D9-A3B5E36D8511}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
     <sheet name="Starting_comparative_model" sheetId="16" r:id="rId9"/>
     <sheet name="Modeling_protocol" sheetId="6" r:id="rId10"/>
     <sheet name="Modeling_post_process" sheetId="15" r:id="rId11"/>
-    <sheet name="Multi-state modeling" sheetId="7" r:id="rId12"/>
-    <sheet name="Multi-state scheme" sheetId="22" r:id="rId13"/>
+    <sheet name="Multi_state_modeling" sheetId="7" r:id="rId12"/>
+    <sheet name="Multi_state_scheme" sheetId="22" r:id="rId13"/>
     <sheet name="Models" sheetId="2" r:id="rId14"/>
-    <sheet name="Collection of models" sheetId="17" r:id="rId15"/>
+    <sheet name="Collection_of_models" sheetId="17" r:id="rId15"/>
     <sheet name="Reference_measurements" sheetId="20" r:id="rId16"/>
     <sheet name="FLR" sheetId="8" r:id="rId17"/>
     <sheet name="FLR_FPS_MPP_group" sheetId="18" r:id="rId18"/>
@@ -67,8 +67,8 @@
     <definedName name="Software_id">Software!$A$5:$A$1048576</definedName>
     <definedName name="solvent_phase_enumeration">for_internal_use_only!$E$2:$E$4</definedName>
     <definedName name="starting_model_id">Instance!$O$5:$O$1048576</definedName>
-    <definedName name="State_id">'Multi-state modeling'!$B$5:$B$1048576</definedName>
-    <definedName name="State_name">'Multi-state modeling'!$G$5:$G$1048576</definedName>
+    <definedName name="State_id">Multi_state_modeling!$B$5:$B$1048576</definedName>
+    <definedName name="State_name">Multi_state_modeling!$G$5:$G$1048576</definedName>
     <definedName name="structure_assembly_id">Instance!$G$5:$G$1048576</definedName>
     <definedName name="Yes_no_selection">for_internal_use_only!$A$2:$A$3</definedName>
   </definedNames>
@@ -4084,7 +4084,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
